--- a/Proyectos/Activos/inter_Cabina/3. Ejecución/3.1 Análisis y Diseño/inter_Cabina_Verificacion Analisis y dise~o.xlsx
+++ b/Proyectos/Activos/inter_Cabina/3. Ejecución/3.1 Análisis y Diseño/inter_Cabina_Verificacion Analisis y dise~o.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\IWM\CMMI3\Cabina press\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\IWM\Repositorio IWM\Proyectos\Activos\inter_Cabina\3. Ejecución\3.1 Análisis y Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -203,9 +203,6 @@
     <t>No se encuentran descritos los posibles escenarios, describirlos</t>
   </si>
   <si>
-    <t>Cabina Press</t>
-  </si>
-  <si>
     <t>Distancia</t>
   </si>
   <si>
@@ -222,6 +219,9 @@
   </si>
   <si>
     <t>Aprobado</t>
+  </si>
+  <si>
+    <t>Inter cabina</t>
   </si>
 </sst>
 </file>
@@ -446,8 +446,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -461,11 +461,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,40 +477,40 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2516,8 +2516,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B2:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:K13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="23" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
@@ -2631,44 +2631,44 @@
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G11" s="19">
+      <c r="G11" s="25">
         <f>SUM(H16:H200)</f>
         <v>1</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="7">
         <f>(SUM(I17:I200)*1)/G11</f>
         <v>1</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="26">
         <f>(SUM(J16:J200)*1)/G11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="20"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
     </row>
     <row r="16" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
@@ -2697,12 +2697,12 @@
       <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
       <c r="G18" s="1"/>
       <c r="H18" s="4">
         <v>0</v>
@@ -2715,14 +2715,14 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="29">
+      <c r="B19" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="29"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="10"/>
       <c r="G19" s="1"/>
       <c r="H19" s="4">
@@ -2736,14 +2736,14 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="29">
+      <c r="B20" s="13">
         <v>1.2</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="29"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="10"/>
       <c r="G20" s="1"/>
       <c r="H20" s="4">
@@ -2757,14 +2757,14 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="29">
+      <c r="B21" s="13">
         <v>1.3</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="29"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="10"/>
       <c r="G21" s="1"/>
       <c r="H21" s="4">
@@ -2781,12 +2781,12 @@
       <c r="B22" s="3">
         <v>2</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
       <c r="G22" s="1"/>
       <c r="H22" s="4">
         <v>0</v>
@@ -2799,14 +2799,14 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="36">
+      <c r="B23" s="12">
         <v>2.1</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="29" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="29"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="10"/>
       <c r="G23" s="1"/>
       <c r="H23" s="4">
@@ -2820,14 +2820,14 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="36">
+      <c r="B24" s="12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="29" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="29"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="10"/>
       <c r="G24" s="1"/>
       <c r="H24" s="4">
@@ -2844,12 +2844,12 @@
       <c r="B25" s="3">
         <v>3</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27"/>
+      <c r="C25" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="31"/>
       <c r="G25" s="1"/>
       <c r="H25" s="4">
         <v>0</v>
@@ -2862,14 +2862,14 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="36">
+      <c r="B26" s="12">
         <v>3.1</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="29" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="29"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="10"/>
       <c r="G26" s="1"/>
       <c r="H26" s="4">
@@ -2883,14 +2883,14 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="36">
+      <c r="B27" s="12">
         <v>3.2</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="29" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="29"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="10"/>
       <c r="G27" s="1"/>
       <c r="H27" s="4">
@@ -2907,12 +2907,12 @@
       <c r="B28" s="3">
         <v>4</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="1"/>
       <c r="H28" s="4">
         <v>0</v>
@@ -2925,14 +2925,14 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="36">
+      <c r="B29" s="12">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="29" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="29"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="10"/>
       <c r="G29" s="1"/>
       <c r="H29" s="4">
@@ -2949,12 +2949,12 @@
       <c r="B30" s="3">
         <v>5</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31"/>
       <c r="G30" s="1"/>
       <c r="H30" s="4">
         <v>0</v>
@@ -2967,14 +2967,14 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="36">
+      <c r="B31" s="12">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="29" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="29"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="10"/>
       <c r="G31" s="1"/>
       <c r="H31" s="4">
@@ -2988,14 +2988,14 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="36">
+      <c r="B32" s="12">
         <v>5.2</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="29" t="s">
+      <c r="C32" s="12"/>
+      <c r="D32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="29"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="10"/>
       <c r="G32" s="1"/>
       <c r="H32" s="4">
@@ -3012,12 +3012,12 @@
       <c r="B33" s="3">
         <v>6</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="27"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
       <c r="G33" s="1"/>
       <c r="H33" s="4">
         <v>0</v>
@@ -3034,10 +3034,10 @@
         <v>6.1</v>
       </c>
       <c r="C34" s="37"/>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="34"/>
+      <c r="E34" s="39"/>
       <c r="F34" s="9"/>
       <c r="G34" s="1"/>
       <c r="H34" s="4">
@@ -3054,12 +3054,12 @@
       <c r="B35" s="3">
         <v>7</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
       <c r="G35" s="1"/>
       <c r="H35" s="4">
         <v>0</v>
@@ -3072,14 +3072,14 @@
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="36">
+      <c r="B36" s="12">
         <v>7.1</v>
       </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="29" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="29"/>
+      <c r="E36" s="13"/>
       <c r="F36" s="10"/>
       <c r="G36" s="1"/>
       <c r="H36" s="4">
@@ -3093,11 +3093,11 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="1" t="s">
         <v>19</v>
       </c>
@@ -3114,11 +3114,11 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="1" t="s">
         <v>17</v>
       </c>
@@ -3138,12 +3138,12 @@
       <c r="B39" s="3">
         <v>8</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="32"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34"/>
       <c r="G39" s="1"/>
       <c r="H39" s="4">
         <v>0</v>
@@ -3156,14 +3156,14 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="29">
+      <c r="B40" s="13">
         <v>8.1</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="29"/>
+      <c r="E40" s="13"/>
       <c r="F40" s="10"/>
       <c r="G40" s="1"/>
       <c r="H40" s="4">
@@ -3177,11 +3177,11 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="1" t="s">
         <v>41</v>
       </c>
@@ -3198,14 +3198,14 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="29">
+      <c r="B42" s="13">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29" t="s">
+      <c r="C42" s="13"/>
+      <c r="D42" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="29"/>
+      <c r="E42" s="13"/>
       <c r="F42" s="10"/>
       <c r="G42" s="1"/>
       <c r="H42" s="4">
@@ -3219,11 +3219,11 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
       <c r="E43" s="1" t="s">
         <v>42</v>
       </c>
@@ -3240,14 +3240,14 @@
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="29">
+      <c r="B44" s="13">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29" t="s">
+      <c r="C44" s="13"/>
+      <c r="D44" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="29"/>
+      <c r="E44" s="13"/>
       <c r="F44" s="10"/>
       <c r="G44" s="1"/>
       <c r="H44" s="4">
@@ -3261,11 +3261,11 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
       <c r="E45" s="1" t="s">
         <v>43</v>
       </c>
@@ -3282,14 +3282,14 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="29">
+      <c r="B46" s="13">
         <v>8.4</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29" t="s">
+      <c r="C46" s="13"/>
+      <c r="D46" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="29"/>
+      <c r="E46" s="13"/>
       <c r="F46" s="10"/>
       <c r="G46" s="1"/>
       <c r="H46" s="4">
@@ -3303,11 +3303,11 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
       <c r="E47" s="1" t="s">
         <v>45</v>
       </c>
@@ -3324,14 +3324,14 @@
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="29">
+      <c r="B48" s="13">
         <v>8.5</v>
       </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29" t="s">
+      <c r="C48" s="13"/>
+      <c r="D48" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="29"/>
+      <c r="E48" s="13"/>
       <c r="F48" s="10"/>
       <c r="G48" s="1" t="s">
         <v>57</v>
@@ -3347,11 +3347,11 @@
       </c>
     </row>
     <row r="49" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
       <c r="E49" s="2" t="s">
         <v>46</v>
       </c>
@@ -3371,12 +3371,12 @@
       <c r="B50" s="3">
         <v>9</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="31"/>
       <c r="G50" s="1"/>
       <c r="H50" s="4">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>9.1</v>
       </c>
       <c r="C51" s="40"/>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="30"/>
+      <c r="E51" s="20"/>
       <c r="F51" s="8"/>
       <c r="G51" s="1"/>
       <c r="H51" s="4">
@@ -3416,19 +3416,53 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="G2:K2"/>
@@ -3445,53 +3479,19 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I13:K13">
